--- a/docs/StructureDefinition-BRImunobiologicoAdministradoCampanha-2.0.xlsx
+++ b/docs/StructureDefinition-BRImunobiologicoAdministradoCampanha-2.0.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="646">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5752" uniqueCount="650">
   <si>
     <t>Property</t>
   </si>
@@ -472,6 +472,13 @@
 </t>
   </si>
   <si>
+    <t>Grupo de Atendimento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
     <t>Immunization.extension:condicaoMaternal</t>
   </si>
   <si>
@@ -480,6 +487,12 @@
   <si>
     <t xml:space="preserve">Extension {http://www.saude.gov.br/fhir/r4/StructureDefinition/BRCondicaoMaternal}
 </t>
+  </si>
+  <si>
+    <t>Condição maternal</t>
+  </si>
+  <si>
+    <t>Indicação da condição maternal da pessoa vacinada (Nenhuma, Gestante, Puérpera). O campo é de preenchimento obrigatório para indivíduos em idade fértil, independente do sexo.</t>
   </si>
   <si>
     <t>Immunization.modifierExtension</t>
@@ -3458,7 +3471,7 @@
         <v>145</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="M10" t="s" s="2">
         <v>138</v>
@@ -3521,7 +3534,7 @@
         <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AJ10" t="s" s="2">
         <v>142</v>
@@ -3544,13 +3557,13 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>134</v>
       </c>
       <c r="C11" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D11" t="s" s="2">
         <v>82</v>
@@ -3560,7 +3573,7 @@
         <v>91</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="H11" t="s" s="2">
         <v>81</v>
@@ -3572,13 +3585,13 @@
         <v>82</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="N11" s="2"/>
       <c r="O11" s="2"/>
@@ -3638,7 +3651,7 @@
         <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>82</v>
+        <v>147</v>
       </c>
       <c r="AJ11" t="s" s="2">
         <v>142</v>
@@ -3661,14 +3674,14 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
@@ -3690,16 +3703,16 @@
         <v>136</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P12" t="s" s="2">
         <v>82</v>
@@ -3748,7 +3761,7 @@
         <v>82</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>79</v>
@@ -3780,10 +3793,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3806,13 +3819,13 @@
         <v>82</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3863,7 +3876,7 @@
         <v>82</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>79</v>
@@ -3878,27 +3891,27 @@
         <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3924,13 +3937,13 @@
         <v>110</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3938,49 +3951,49 @@
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="S14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="Y14" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="Z14" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="AA14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE14" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF14" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="S14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>170</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="AA14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE14" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF14" t="s" s="2">
-        <v>164</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>91</v>
@@ -3995,16 +4008,16 @@
         <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="AO14" t="s" s="2">
         <v>82</v>
@@ -4012,10 +4025,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -4038,16 +4051,16 @@
         <v>82</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4073,13 +4086,13 @@
         <v>82</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>82</v>
@@ -4097,7 +4110,7 @@
         <v>82</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>79</v>
@@ -4112,13 +4125,13 @@
         <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>82</v>
@@ -4129,10 +4142,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4155,13 +4168,13 @@
         <v>81</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4188,13 +4201,13 @@
         <v>82</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>82</v>
@@ -4212,7 +4225,7 @@
         <v>82</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>91</v>
@@ -4227,27 +4240,27 @@
         <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4270,13 +4283,13 @@
         <v>82</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4327,7 +4340,7 @@
         <v>82</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>79</v>
@@ -4348,7 +4361,7 @@
         <v>82</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>82</v>
@@ -4359,14 +4372,14 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4388,13 +4401,13 @@
         <v>136</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
@@ -4435,7 +4448,7 @@
         <v>139</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD18" t="s" s="2">
         <v>82</v>
@@ -4444,7 +4457,7 @@
         <v>140</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>79</v>
@@ -4465,7 +4478,7 @@
         <v>82</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>82</v>
@@ -4476,10 +4489,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4502,19 +4515,19 @@
         <v>81</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>82</v>
@@ -4563,7 +4576,7 @@
         <v>82</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>79</v>
@@ -4581,10 +4594,10 @@
         <v>82</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>82</v>
@@ -4595,10 +4608,10 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4621,13 +4634,13 @@
         <v>82</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4678,7 +4691,7 @@
         <v>82</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>79</v>
@@ -4699,7 +4712,7 @@
         <v>82</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>82</v>
@@ -4710,14 +4723,14 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
@@ -4739,13 +4752,13 @@
         <v>136</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4786,7 +4799,7 @@
         <v>139</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD21" t="s" s="2">
         <v>82</v>
@@ -4795,7 +4808,7 @@
         <v>140</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>79</v>
@@ -4816,7 +4829,7 @@
         <v>82</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>82</v>
@@ -4827,10 +4840,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4856,16 +4869,16 @@
         <v>104</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P22" t="s" s="2">
         <v>82</v>
@@ -4914,7 +4927,7 @@
         <v>82</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>79</v>
@@ -4932,10 +4945,10 @@
         <v>82</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>82</v>
@@ -4946,10 +4959,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4972,16 +4985,16 @@
         <v>81</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5031,7 +5044,7 @@
         <v>82</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>79</v>
@@ -5049,10 +5062,10 @@
         <v>82</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>82</v>
@@ -5063,10 +5076,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5092,14 +5105,14 @@
         <v>110</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>82</v>
@@ -5148,7 +5161,7 @@
         <v>82</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>79</v>
@@ -5166,10 +5179,10 @@
         <v>82</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>82</v>
@@ -5180,10 +5193,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5206,17 +5219,17 @@
         <v>81</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>82</v>
@@ -5265,7 +5278,7 @@
         <v>82</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>79</v>
@@ -5283,10 +5296,10 @@
         <v>82</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AN25" t="s" s="2">
         <v>82</v>
@@ -5297,10 +5310,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5323,19 +5336,19 @@
         <v>81</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>82</v>
@@ -5384,7 +5397,7 @@
         <v>82</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>79</v>
@@ -5402,10 +5415,10 @@
         <v>82</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>82</v>
@@ -5416,10 +5429,10 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5442,19 +5455,19 @@
         <v>81</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>82</v>
@@ -5503,7 +5516,7 @@
         <v>82</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>79</v>
@@ -5521,10 +5534,10 @@
         <v>82</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>82</v>
@@ -5535,10 +5548,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5561,13 +5574,13 @@
         <v>81</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5618,7 +5631,7 @@
         <v>82</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>91</v>
@@ -5633,16 +5646,16 @@
         <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>82</v>
@@ -5650,10 +5663,10 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5676,13 +5689,13 @@
         <v>82</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
@@ -5733,7 +5746,7 @@
         <v>82</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>79</v>
@@ -5754,7 +5767,7 @@
         <v>82</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN29" t="s" s="2">
         <v>82</v>
@@ -5765,14 +5778,14 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
@@ -5794,13 +5807,13 @@
         <v>136</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5841,7 +5854,7 @@
         <v>139</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD30" t="s" s="2">
         <v>82</v>
@@ -5850,7 +5863,7 @@
         <v>140</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>79</v>
@@ -5871,7 +5884,7 @@
         <v>82</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>82</v>
@@ -5882,10 +5895,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5908,16 +5921,16 @@
         <v>81</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5967,7 +5980,7 @@
         <v>82</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>79</v>
@@ -5976,7 +5989,7 @@
         <v>91</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AJ31" t="s" s="2">
         <v>102</v>
@@ -5999,10 +6012,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6028,13 +6041,13 @@
         <v>104</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6060,13 +6073,13 @@
         <v>82</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>82</v>
@@ -6084,7 +6097,7 @@
         <v>82</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>79</v>
@@ -6116,10 +6129,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6142,16 +6155,16 @@
         <v>81</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6201,7 +6214,7 @@
         <v>82</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>79</v>
@@ -6222,7 +6235,7 @@
         <v>82</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>82</v>
@@ -6233,10 +6246,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6259,13 +6272,13 @@
         <v>82</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6316,7 +6329,7 @@
         <v>82</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>79</v>
@@ -6337,7 +6350,7 @@
         <v>82</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>82</v>
@@ -6348,14 +6361,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6377,13 +6390,13 @@
         <v>136</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6424,7 +6437,7 @@
         <v>139</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>82</v>
@@ -6433,7 +6446,7 @@
         <v>140</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>79</v>
@@ -6454,7 +6467,7 @@
         <v>82</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>82</v>
@@ -6465,10 +6478,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6494,16 +6507,16 @@
         <v>110</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O36" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>82</v>
@@ -6528,13 +6541,13 @@
         <v>82</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>82</v>
@@ -6552,7 +6565,7 @@
         <v>82</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>79</v>
@@ -6573,7 +6586,7 @@
         <v>133</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>82</v>
@@ -6584,10 +6597,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6610,19 +6623,19 @@
         <v>81</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>82</v>
@@ -6647,13 +6660,13 @@
         <v>82</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>82</v>
@@ -6671,7 +6684,7 @@
         <v>82</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>79</v>
@@ -6689,10 +6702,10 @@
         <v>82</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>82</v>
@@ -6703,10 +6716,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6732,16 +6745,16 @@
         <v>104</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>82</v>
@@ -6754,7 +6767,7 @@
         <v>82</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>82</v>
@@ -6790,7 +6803,7 @@
         <v>82</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>79</v>
@@ -6808,10 +6821,10 @@
         <v>82</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN38" t="s" s="2">
         <v>82</v>
@@ -6822,10 +6835,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6848,16 +6861,16 @@
         <v>81</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6871,7 +6884,7 @@
         <v>82</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="U39" t="s" s="2">
         <v>82</v>
@@ -6907,7 +6920,7 @@
         <v>82</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>79</v>
@@ -6925,10 +6938,10 @@
         <v>82</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>82</v>
@@ -6939,10 +6952,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6965,13 +6978,13 @@
         <v>81</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7022,7 +7035,7 @@
         <v>82</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>79</v>
@@ -7040,10 +7053,10 @@
         <v>82</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>82</v>
@@ -7054,10 +7067,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7080,16 +7093,16 @@
         <v>81</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7139,7 +7152,7 @@
         <v>82</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>79</v>
@@ -7157,10 +7170,10 @@
         <v>82</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>82</v>
@@ -7171,10 +7184,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7197,16 +7210,16 @@
         <v>81</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7256,7 +7269,7 @@
         <v>82</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>79</v>
@@ -7288,10 +7301,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7314,13 +7327,13 @@
         <v>82</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7371,7 +7384,7 @@
         <v>82</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>79</v>
@@ -7386,16 +7399,16 @@
         <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>82</v>
@@ -7403,10 +7416,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7429,16 +7442,16 @@
         <v>81</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7488,7 +7501,7 @@
         <v>82</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>91</v>
@@ -7503,27 +7516,27 @@
         <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7546,13 +7559,13 @@
         <v>82</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7603,7 +7616,7 @@
         <v>82</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>79</v>
@@ -7624,10 +7637,10 @@
         <v>82</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>82</v>
@@ -7635,10 +7648,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7661,16 +7674,16 @@
         <v>81</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7720,7 +7733,7 @@
         <v>82</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>79</v>
@@ -7738,13 +7751,13 @@
         <v>82</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>82</v>
@@ -7752,10 +7765,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7778,16 +7791,16 @@
         <v>82</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7813,31 +7826,31 @@
         <v>82</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y47" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF47" t="s" s="2">
         <v>383</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF47" t="s" s="2">
-        <v>379</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>79</v>
@@ -7855,13 +7868,13 @@
         <v>82</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AO47" t="s" s="2">
         <v>82</v>
@@ -7869,10 +7882,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7895,13 +7908,13 @@
         <v>82</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7952,7 +7965,7 @@
         <v>82</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>79</v>
@@ -7967,16 +7980,16 @@
         <v>102</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AN48" t="s" s="2">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="AO48" t="s" s="2">
         <v>82</v>
@@ -7984,10 +7997,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8010,13 +8023,13 @@
         <v>82</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -8067,7 +8080,7 @@
         <v>82</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>79</v>
@@ -8085,24 +8098,24 @@
         <v>82</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO49" t="s" s="2">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8125,13 +8138,13 @@
         <v>82</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -8182,7 +8195,7 @@
         <v>82</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>79</v>
@@ -8203,7 +8216,7 @@
         <v>82</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>82</v>
@@ -8214,14 +8227,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -8243,13 +8256,13 @@
         <v>136</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
@@ -8290,7 +8303,7 @@
         <v>139</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>82</v>
@@ -8299,7 +8312,7 @@
         <v>140</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>79</v>
@@ -8320,7 +8333,7 @@
         <v>82</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>82</v>
@@ -8331,10 +8344,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8357,16 +8370,16 @@
         <v>81</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -8416,7 +8429,7 @@
         <v>82</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>79</v>
@@ -8425,7 +8438,7 @@
         <v>91</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AJ52" t="s" s="2">
         <v>102</v>
@@ -8448,10 +8461,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8477,13 +8490,13 @@
         <v>104</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -8509,13 +8522,13 @@
         <v>82</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>82</v>
@@ -8533,7 +8546,7 @@
         <v>82</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>79</v>
@@ -8565,10 +8578,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8591,16 +8604,16 @@
         <v>81</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8650,7 +8663,7 @@
         <v>82</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>79</v>
@@ -8671,7 +8684,7 @@
         <v>82</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>82</v>
@@ -8682,10 +8695,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8708,13 +8721,13 @@
         <v>82</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8765,7 +8778,7 @@
         <v>82</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>79</v>
@@ -8786,7 +8799,7 @@
         <v>82</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>82</v>
@@ -8797,14 +8810,14 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8826,13 +8839,13 @@
         <v>136</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8873,7 +8886,7 @@
         <v>139</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>82</v>
@@ -8882,7 +8895,7 @@
         <v>140</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>79</v>
@@ -8903,7 +8916,7 @@
         <v>82</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>82</v>
@@ -8914,10 +8927,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8943,16 +8956,16 @@
         <v>110</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="O57" t="s" s="2">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="P57" t="s" s="2">
         <v>82</v>
@@ -8977,13 +8990,13 @@
         <v>82</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>82</v>
@@ -9001,7 +9014,7 @@
         <v>82</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>79</v>
@@ -9022,7 +9035,7 @@
         <v>133</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>82</v>
@@ -9033,10 +9046,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -9059,19 +9072,19 @@
         <v>81</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>82</v>
@@ -9096,13 +9109,13 @@
         <v>82</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>82</v>
@@ -9120,7 +9133,7 @@
         <v>82</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>79</v>
@@ -9138,10 +9151,10 @@
         <v>82</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>82</v>
@@ -9152,10 +9165,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9178,13 +9191,13 @@
         <v>82</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9235,7 +9248,7 @@
         <v>82</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>79</v>
@@ -9256,7 +9269,7 @@
         <v>82</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>82</v>
@@ -9267,14 +9280,14 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -9296,13 +9309,13 @@
         <v>136</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9343,7 +9356,7 @@
         <v>139</v>
       </c>
       <c r="AC60" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD60" t="s" s="2">
         <v>82</v>
@@ -9352,7 +9365,7 @@
         <v>140</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>79</v>
@@ -9373,7 +9386,7 @@
         <v>82</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>82</v>
@@ -9384,10 +9397,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9410,19 +9423,19 @@
         <v>81</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>82</v>
@@ -9471,7 +9484,7 @@
         <v>82</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>79</v>
@@ -9489,10 +9502,10 @@
         <v>82</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>82</v>
@@ -9503,10 +9516,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9529,13 +9542,13 @@
         <v>82</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -9586,7 +9599,7 @@
         <v>82</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>79</v>
@@ -9607,7 +9620,7 @@
         <v>82</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>82</v>
@@ -9618,14 +9631,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -9647,13 +9660,13 @@
         <v>136</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9694,7 +9707,7 @@
         <v>139</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>82</v>
@@ -9703,7 +9716,7 @@
         <v>140</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>79</v>
@@ -9724,7 +9737,7 @@
         <v>82</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>82</v>
@@ -9735,10 +9748,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9764,16 +9777,16 @@
         <v>104</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>82</v>
@@ -9822,7 +9835,7 @@
         <v>82</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>79</v>
@@ -9840,10 +9853,10 @@
         <v>82</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>82</v>
@@ -9854,10 +9867,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9880,16 +9893,16 @@
         <v>81</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9939,7 +9952,7 @@
         <v>82</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>79</v>
@@ -9957,10 +9970,10 @@
         <v>82</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>82</v>
@@ -9971,10 +9984,10 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10000,14 +10013,14 @@
         <v>110</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>82</v>
@@ -10056,7 +10069,7 @@
         <v>82</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>79</v>
@@ -10074,10 +10087,10 @@
         <v>82</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>82</v>
@@ -10088,10 +10101,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10114,17 +10127,17 @@
         <v>81</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>82</v>
@@ -10173,7 +10186,7 @@
         <v>82</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>79</v>
@@ -10191,10 +10204,10 @@
         <v>82</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AN67" t="s" s="2">
         <v>82</v>
@@ -10205,10 +10218,10 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10231,19 +10244,19 @@
         <v>81</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>82</v>
@@ -10292,7 +10305,7 @@
         <v>82</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>79</v>
@@ -10310,10 +10323,10 @@
         <v>82</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>82</v>
@@ -10324,10 +10337,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10350,19 +10363,19 @@
         <v>81</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>82</v>
@@ -10411,7 +10424,7 @@
         <v>82</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>79</v>
@@ -10429,10 +10442,10 @@
         <v>82</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>82</v>
@@ -10443,10 +10456,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -10472,29 +10485,29 @@
         <v>104</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="O70" t="s" s="2">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="P70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>82</v>
       </c>
       <c r="T70" t="s" s="2">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="U70" t="s" s="2">
         <v>82</v>
@@ -10530,7 +10543,7 @@
         <v>82</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>79</v>
@@ -10548,10 +10561,10 @@
         <v>82</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>82</v>
@@ -10562,10 +10575,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -10588,16 +10601,16 @@
         <v>81</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -10611,7 +10624,7 @@
         <v>82</v>
       </c>
       <c r="T71" t="s" s="2">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="U71" t="s" s="2">
         <v>82</v>
@@ -10623,13 +10636,13 @@
         <v>82</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>82</v>
@@ -10647,7 +10660,7 @@
         <v>82</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>79</v>
@@ -10665,10 +10678,10 @@
         <v>82</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>82</v>
@@ -10679,10 +10692,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10705,13 +10718,13 @@
         <v>81</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10762,7 +10775,7 @@
         <v>82</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>79</v>
@@ -10780,10 +10793,10 @@
         <v>82</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>82</v>
@@ -10794,10 +10807,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10820,16 +10833,16 @@
         <v>81</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -10879,7 +10892,7 @@
         <v>82</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>79</v>
@@ -10897,10 +10910,10 @@
         <v>82</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>82</v>
@@ -10911,10 +10924,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10937,16 +10950,16 @@
         <v>81</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -10996,7 +11009,7 @@
         <v>82</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>79</v>
@@ -11028,10 +11041,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11054,13 +11067,13 @@
         <v>82</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -11111,7 +11124,7 @@
         <v>82</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>79</v>
@@ -11129,24 +11142,24 @@
         <v>82</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO75" t="s" s="2">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11169,13 +11182,13 @@
         <v>82</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -11226,7 +11239,7 @@
         <v>82</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>79</v>
@@ -11244,10 +11257,10 @@
         <v>82</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>82</v>
@@ -11258,10 +11271,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11284,13 +11297,13 @@
         <v>82</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -11317,31 +11330,31 @@
         <v>82</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="Z77" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF77" t="s" s="2">
         <v>448</v>
-      </c>
-      <c r="AA77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE77" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF77" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>79</v>
@@ -11359,24 +11372,24 @@
         <v>82</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO77" t="s" s="2">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11399,13 +11412,13 @@
         <v>82</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -11456,7 +11469,7 @@
         <v>82</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>79</v>
@@ -11477,7 +11490,7 @@
         <v>82</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>82</v>
@@ -11488,14 +11501,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -11517,13 +11530,13 @@
         <v>136</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
@@ -11564,7 +11577,7 @@
         <v>139</v>
       </c>
       <c r="AC79" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD79" t="s" s="2">
         <v>82</v>
@@ -11573,7 +11586,7 @@
         <v>140</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>79</v>
@@ -11594,7 +11607,7 @@
         <v>82</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>82</v>
@@ -11605,10 +11618,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -11631,19 +11644,19 @@
         <v>81</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N80" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O80" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P80" t="s" s="2">
         <v>82</v>
@@ -11692,7 +11705,7 @@
         <v>82</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>79</v>
@@ -11710,10 +11723,10 @@
         <v>82</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN80" t="s" s="2">
         <v>82</v>
@@ -11724,10 +11737,10 @@
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11750,13 +11763,13 @@
         <v>82</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N81" s="2"/>
       <c r="O81" s="2"/>
@@ -11807,7 +11820,7 @@
         <v>82</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>79</v>
@@ -11828,7 +11841,7 @@
         <v>82</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN81" t="s" s="2">
         <v>82</v>
@@ -11839,14 +11852,14 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
@@ -11868,13 +11881,13 @@
         <v>136</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11915,7 +11928,7 @@
         <v>139</v>
       </c>
       <c r="AC82" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD82" t="s" s="2">
         <v>82</v>
@@ -11924,7 +11937,7 @@
         <v>140</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>79</v>
@@ -11945,7 +11958,7 @@
         <v>82</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN82" t="s" s="2">
         <v>82</v>
@@ -11956,10 +11969,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11985,16 +11998,16 @@
         <v>104</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O83" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>82</v>
@@ -12043,7 +12056,7 @@
         <v>82</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>79</v>
@@ -12061,10 +12074,10 @@
         <v>82</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM83" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AN83" t="s" s="2">
         <v>82</v>
@@ -12075,10 +12088,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -12101,16 +12114,16 @@
         <v>81</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -12160,7 +12173,7 @@
         <v>82</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>79</v>
@@ -12178,10 +12191,10 @@
         <v>82</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM84" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AN84" t="s" s="2">
         <v>82</v>
@@ -12192,10 +12205,10 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -12221,14 +12234,14 @@
         <v>110</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N85" s="2"/>
       <c r="O85" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P85" t="s" s="2">
         <v>82</v>
@@ -12277,7 +12290,7 @@
         <v>82</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>79</v>
@@ -12295,10 +12308,10 @@
         <v>82</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AM85" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AN85" t="s" s="2">
         <v>82</v>
@@ -12309,10 +12322,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -12335,17 +12348,17 @@
         <v>81</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P86" t="s" s="2">
         <v>82</v>
@@ -12394,7 +12407,7 @@
         <v>82</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG86" t="s" s="2">
         <v>79</v>
@@ -12412,10 +12425,10 @@
         <v>82</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AN86" t="s" s="2">
         <v>82</v>
@@ -12426,10 +12439,10 @@
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -12452,19 +12465,19 @@
         <v>81</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O87" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P87" t="s" s="2">
         <v>82</v>
@@ -12513,7 +12526,7 @@
         <v>82</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>79</v>
@@ -12531,10 +12544,10 @@
         <v>82</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM87" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN87" t="s" s="2">
         <v>82</v>
@@ -12545,10 +12558,10 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
@@ -12571,19 +12584,19 @@
         <v>81</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>82</v>
@@ -12632,7 +12645,7 @@
         <v>82</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>79</v>
@@ -12650,10 +12663,10 @@
         <v>82</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AM88" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AN88" t="s" s="2">
         <v>82</v>
@@ -12664,10 +12677,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -12690,13 +12703,13 @@
         <v>82</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12723,31 +12736,31 @@
         <v>82</v>
       </c>
       <c r="X89" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y89" t="s" s="2">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="Z89" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF89" t="s" s="2">
         <v>467</v>
-      </c>
-      <c r="AA89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE89" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF89" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>79</v>
@@ -12765,24 +12778,24 @@
         <v>82</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AM89" t="s" s="2">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AN89" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AO89" t="s" s="2">
-        <v>470</v>
+        <v>474</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12805,13 +12818,13 @@
         <v>82</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12862,7 +12875,7 @@
         <v>82</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>79</v>
@@ -12883,7 +12896,7 @@
         <v>82</v>
       </c>
       <c r="AM90" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN90" t="s" s="2">
         <v>82</v>
@@ -12894,14 +12907,14 @@
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" t="s" s="2">
@@ -12923,13 +12936,13 @@
         <v>136</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N91" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
@@ -12970,7 +12983,7 @@
         <v>139</v>
       </c>
       <c r="AC91" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD91" t="s" s="2">
         <v>82</v>
@@ -12979,7 +12992,7 @@
         <v>140</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>79</v>
@@ -13000,7 +13013,7 @@
         <v>82</v>
       </c>
       <c r="AM91" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN91" t="s" s="2">
         <v>82</v>
@@ -13011,10 +13024,10 @@
     </row>
     <row r="92" hidden="true">
       <c r="A92" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -13037,19 +13050,19 @@
         <v>81</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M92" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N92" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O92" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P92" t="s" s="2">
         <v>82</v>
@@ -13098,7 +13111,7 @@
         <v>82</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG92" t="s" s="2">
         <v>79</v>
@@ -13116,10 +13129,10 @@
         <v>82</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM92" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN92" t="s" s="2">
         <v>82</v>
@@ -13130,10 +13143,10 @@
     </row>
     <row r="93" hidden="true">
       <c r="A93" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" t="s" s="2">
@@ -13156,13 +13169,13 @@
         <v>82</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" s="2"/>
@@ -13213,7 +13226,7 @@
         <v>82</v>
       </c>
       <c r="AF93" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG93" t="s" s="2">
         <v>79</v>
@@ -13234,7 +13247,7 @@
         <v>82</v>
       </c>
       <c r="AM93" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN93" t="s" s="2">
         <v>82</v>
@@ -13245,14 +13258,14 @@
     </row>
     <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" t="s" s="2">
@@ -13274,13 +13287,13 @@
         <v>136</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O94" s="2"/>
       <c r="P94" t="s" s="2">
@@ -13321,7 +13334,7 @@
         <v>139</v>
       </c>
       <c r="AC94" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD94" t="s" s="2">
         <v>82</v>
@@ -13330,7 +13343,7 @@
         <v>140</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>79</v>
@@ -13351,7 +13364,7 @@
         <v>82</v>
       </c>
       <c r="AM94" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN94" t="s" s="2">
         <v>82</v>
@@ -13362,10 +13375,10 @@
     </row>
     <row r="95" hidden="true">
       <c r="A95" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -13391,16 +13404,16 @@
         <v>104</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P95" t="s" s="2">
         <v>82</v>
@@ -13449,7 +13462,7 @@
         <v>82</v>
       </c>
       <c r="AF95" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG95" t="s" s="2">
         <v>79</v>
@@ -13467,10 +13480,10 @@
         <v>82</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM95" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AN95" t="s" s="2">
         <v>82</v>
@@ -13481,10 +13494,10 @@
     </row>
     <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" t="s" s="2">
@@ -13507,16 +13520,16 @@
         <v>81</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" t="s" s="2">
@@ -13566,7 +13579,7 @@
         <v>82</v>
       </c>
       <c r="AF96" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AG96" t="s" s="2">
         <v>79</v>
@@ -13584,10 +13597,10 @@
         <v>82</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM96" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AN96" t="s" s="2">
         <v>82</v>
@@ -13598,10 +13611,10 @@
     </row>
     <row r="97" hidden="true">
       <c r="A97" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -13627,14 +13640,14 @@
         <v>110</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M97" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P97" t="s" s="2">
         <v>82</v>
@@ -13683,7 +13696,7 @@
         <v>82</v>
       </c>
       <c r="AF97" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG97" t="s" s="2">
         <v>79</v>
@@ -13701,10 +13714,10 @@
         <v>82</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AM97" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AN97" t="s" s="2">
         <v>82</v>
@@ -13715,10 +13728,10 @@
     </row>
     <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -13741,17 +13754,17 @@
         <v>81</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M98" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P98" t="s" s="2">
         <v>82</v>
@@ -13800,7 +13813,7 @@
         <v>82</v>
       </c>
       <c r="AF98" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG98" t="s" s="2">
         <v>79</v>
@@ -13818,10 +13831,10 @@
         <v>82</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AM98" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AN98" t="s" s="2">
         <v>82</v>
@@ -13832,10 +13845,10 @@
     </row>
     <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -13858,19 +13871,19 @@
         <v>81</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M99" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N99" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O99" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P99" t="s" s="2">
         <v>82</v>
@@ -13919,7 +13932,7 @@
         <v>82</v>
       </c>
       <c r="AF99" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AG99" t="s" s="2">
         <v>79</v>
@@ -13937,10 +13950,10 @@
         <v>82</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM99" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN99" t="s" s="2">
         <v>82</v>
@@ -13951,10 +13964,10 @@
     </row>
     <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -13977,19 +13990,19 @@
         <v>81</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O100" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P100" t="s" s="2">
         <v>82</v>
@@ -14038,7 +14051,7 @@
         <v>82</v>
       </c>
       <c r="AF100" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG100" t="s" s="2">
         <v>79</v>
@@ -14056,10 +14069,10 @@
         <v>82</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AM100" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AN100" t="s" s="2">
         <v>82</v>
@@ -14070,10 +14083,10 @@
     </row>
     <row r="101" hidden="true">
       <c r="A101" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="C101" s="2"/>
       <c r="D101" t="s" s="2">
@@ -14096,13 +14109,13 @@
         <v>82</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" s="2"/>
@@ -14153,7 +14166,7 @@
         <v>82</v>
       </c>
       <c r="AF101" t="s" s="2">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AG101" t="s" s="2">
         <v>79</v>
@@ -14171,10 +14184,10 @@
         <v>82</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="AM101" t="s" s="2">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="AN101" t="s" s="2">
         <v>82</v>
@@ -14185,10 +14198,10 @@
     </row>
     <row r="102" hidden="true">
       <c r="A102" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -14211,13 +14224,13 @@
         <v>81</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="N102" s="2"/>
       <c r="O102" s="2"/>
@@ -14268,7 +14281,7 @@
         <v>82</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>79</v>
@@ -14283,13 +14296,13 @@
         <v>102</v>
       </c>
       <c r="AK102" t="s" s="2">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="AM102" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="AN102" t="s" s="2">
         <v>82</v>
@@ -14300,10 +14313,10 @@
     </row>
     <row r="103" hidden="true">
       <c r="A103" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -14326,13 +14339,13 @@
         <v>82</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N103" s="2"/>
       <c r="O103" s="2"/>
@@ -14383,7 +14396,7 @@
         <v>82</v>
       </c>
       <c r="AF103" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG103" t="s" s="2">
         <v>79</v>
@@ -14404,7 +14417,7 @@
         <v>82</v>
       </c>
       <c r="AM103" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN103" t="s" s="2">
         <v>82</v>
@@ -14415,14 +14428,14 @@
     </row>
     <row r="104" hidden="true">
       <c r="A104" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="C104" s="2"/>
       <c r="D104" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" t="s" s="2">
@@ -14444,13 +14457,13 @@
         <v>136</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" t="s" s="2">
@@ -14500,7 +14513,7 @@
         <v>82</v>
       </c>
       <c r="AF104" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG104" t="s" s="2">
         <v>79</v>
@@ -14521,7 +14534,7 @@
         <v>82</v>
       </c>
       <c r="AM104" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN104" t="s" s="2">
         <v>82</v>
@@ -14532,14 +14545,14 @@
     </row>
     <row r="105" hidden="true">
       <c r="A105" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" t="s" s="2">
@@ -14561,16 +14574,16 @@
         <v>136</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O105" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P105" t="s" s="2">
         <v>82</v>
@@ -14619,7 +14632,7 @@
         <v>82</v>
       </c>
       <c r="AF105" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AG105" t="s" s="2">
         <v>79</v>
@@ -14651,10 +14664,10 @@
     </row>
     <row r="106" hidden="true">
       <c r="A106" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -14677,13 +14690,13 @@
         <v>81</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="N106" s="2"/>
       <c r="O106" s="2"/>
@@ -14710,31 +14723,31 @@
         <v>82</v>
       </c>
       <c r="X106" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Y106" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="Z106" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF106" t="s" s="2">
         <v>506</v>
-      </c>
-      <c r="AA106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE106" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF106" t="s" s="2">
-        <v>502</v>
       </c>
       <c r="AG106" t="s" s="2">
         <v>79</v>
@@ -14749,13 +14762,13 @@
         <v>102</v>
       </c>
       <c r="AK106" t="s" s="2">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="AL106" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM106" t="s" s="2">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AN106" t="s" s="2">
         <v>82</v>
@@ -14766,10 +14779,10 @@
     </row>
     <row r="107" hidden="true">
       <c r="A107" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -14792,13 +14805,13 @@
         <v>82</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M107" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N107" s="2"/>
       <c r="O107" s="2"/>
@@ -14849,7 +14862,7 @@
         <v>82</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG107" t="s" s="2">
         <v>79</v>
@@ -14870,7 +14883,7 @@
         <v>82</v>
       </c>
       <c r="AM107" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN107" t="s" s="2">
         <v>82</v>
@@ -14881,14 +14894,14 @@
     </row>
     <row r="108" hidden="true">
       <c r="A108" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" t="s" s="2">
@@ -14910,13 +14923,13 @@
         <v>136</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -14957,7 +14970,7 @@
         <v>139</v>
       </c>
       <c r="AC108" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD108" t="s" s="2">
         <v>82</v>
@@ -14966,7 +14979,7 @@
         <v>140</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>79</v>
@@ -14987,7 +15000,7 @@
         <v>82</v>
       </c>
       <c r="AM108" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN108" t="s" s="2">
         <v>82</v>
@@ -14998,10 +15011,10 @@
     </row>
     <row r="109" hidden="true">
       <c r="A109" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" t="s" s="2">
@@ -15024,19 +15037,19 @@
         <v>81</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="N109" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="O109" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>82</v>
@@ -15085,7 +15098,7 @@
         <v>82</v>
       </c>
       <c r="AF109" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="AG109" t="s" s="2">
         <v>79</v>
@@ -15103,10 +15116,10 @@
         <v>82</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="AM109" t="s" s="2">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="AN109" t="s" s="2">
         <v>82</v>
@@ -15117,10 +15130,10 @@
     </row>
     <row r="110" hidden="true">
       <c r="A110" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -15143,13 +15156,13 @@
         <v>82</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L110" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N110" s="2"/>
       <c r="O110" s="2"/>
@@ -15200,7 +15213,7 @@
         <v>82</v>
       </c>
       <c r="AF110" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG110" t="s" s="2">
         <v>79</v>
@@ -15221,7 +15234,7 @@
         <v>82</v>
       </c>
       <c r="AM110" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN110" t="s" s="2">
         <v>82</v>
@@ -15232,14 +15245,14 @@
     </row>
     <row r="111" hidden="true">
       <c r="A111" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" t="s" s="2">
@@ -15261,13 +15274,13 @@
         <v>136</v>
       </c>
       <c r="L111" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" t="s" s="2">
@@ -15308,7 +15321,7 @@
         <v>139</v>
       </c>
       <c r="AC111" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD111" t="s" s="2">
         <v>82</v>
@@ -15317,7 +15330,7 @@
         <v>140</v>
       </c>
       <c r="AF111" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG111" t="s" s="2">
         <v>79</v>
@@ -15338,7 +15351,7 @@
         <v>82</v>
       </c>
       <c r="AM111" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN111" t="s" s="2">
         <v>82</v>
@@ -15349,10 +15362,10 @@
     </row>
     <row r="112" hidden="true">
       <c r="A112" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -15378,16 +15391,16 @@
         <v>104</v>
       </c>
       <c r="L112" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P112" t="s" s="2">
         <v>82</v>
@@ -15436,7 +15449,7 @@
         <v>82</v>
       </c>
       <c r="AF112" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="AG112" t="s" s="2">
         <v>79</v>
@@ -15454,10 +15467,10 @@
         <v>82</v>
       </c>
       <c r="AL112" t="s" s="2">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="AM112" t="s" s="2">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="AN112" t="s" s="2">
         <v>82</v>
@@ -15468,10 +15481,10 @@
     </row>
     <row r="113" hidden="true">
       <c r="A113" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -15494,16 +15507,16 @@
         <v>81</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="O113" s="2"/>
       <c r="P113" t="s" s="2">
@@ -15553,7 +15566,7 @@
         <v>82</v>
       </c>
       <c r="AF113" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="AG113" t="s" s="2">
         <v>79</v>
@@ -15571,10 +15584,10 @@
         <v>82</v>
       </c>
       <c r="AL113" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="AM113" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="AN113" t="s" s="2">
         <v>82</v>
@@ -15585,10 +15598,10 @@
     </row>
     <row r="114" hidden="true">
       <c r="A114" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C114" s="2"/>
       <c r="D114" t="s" s="2">
@@ -15614,14 +15627,14 @@
         <v>110</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>82</v>
@@ -15670,7 +15683,7 @@
         <v>82</v>
       </c>
       <c r="AF114" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="AG114" t="s" s="2">
         <v>79</v>
@@ -15688,10 +15701,10 @@
         <v>82</v>
       </c>
       <c r="AL114" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="AM114" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="AN114" t="s" s="2">
         <v>82</v>
@@ -15702,10 +15715,10 @@
     </row>
     <row r="115" hidden="true">
       <c r="A115" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -15728,17 +15741,17 @@
         <v>81</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L115" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N115" s="2"/>
       <c r="O115" t="s" s="2">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="P115" t="s" s="2">
         <v>82</v>
@@ -15787,7 +15800,7 @@
         <v>82</v>
       </c>
       <c r="AF115" t="s" s="2">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="AG115" t="s" s="2">
         <v>79</v>
@@ -15805,10 +15818,10 @@
         <v>82</v>
       </c>
       <c r="AL115" t="s" s="2">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="AM115" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="AN115" t="s" s="2">
         <v>82</v>
@@ -15819,10 +15832,10 @@
     </row>
     <row r="116" hidden="true">
       <c r="A116" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -15845,19 +15858,19 @@
         <v>81</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L116" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M116" t="s" s="2">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N116" t="s" s="2">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O116" t="s" s="2">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P116" t="s" s="2">
         <v>82</v>
@@ -15906,7 +15919,7 @@
         <v>82</v>
       </c>
       <c r="AF116" t="s" s="2">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="AG116" t="s" s="2">
         <v>79</v>
@@ -15924,10 +15937,10 @@
         <v>82</v>
       </c>
       <c r="AL116" t="s" s="2">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="AM116" t="s" s="2">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="AN116" t="s" s="2">
         <v>82</v>
@@ -15938,10 +15951,10 @@
     </row>
     <row r="117" hidden="true">
       <c r="A117" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -15964,19 +15977,19 @@
         <v>81</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L117" t="s" s="2">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M117" t="s" s="2">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="N117" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="O117" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="P117" t="s" s="2">
         <v>82</v>
@@ -16025,7 +16038,7 @@
         <v>82</v>
       </c>
       <c r="AF117" t="s" s="2">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="AG117" t="s" s="2">
         <v>79</v>
@@ -16043,10 +16056,10 @@
         <v>82</v>
       </c>
       <c r="AL117" t="s" s="2">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AM117" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AN117" t="s" s="2">
         <v>82</v>
@@ -16057,10 +16070,10 @@
     </row>
     <row r="118" hidden="true">
       <c r="A118" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -16083,16 +16096,16 @@
         <v>81</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="N118" t="s" s="2">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="O118" s="2"/>
       <c r="P118" t="s" s="2">
@@ -16142,7 +16155,7 @@
         <v>82</v>
       </c>
       <c r="AF118" t="s" s="2">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="AG118" t="s" s="2">
         <v>91</v>
@@ -16157,16 +16170,16 @@
         <v>102</v>
       </c>
       <c r="AK118" t="s" s="2">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AL118" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM118" t="s" s="2">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="AN118" t="s" s="2">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="AO118" t="s" s="2">
         <v>82</v>
@@ -16174,10 +16187,10 @@
     </row>
     <row r="119" hidden="true">
       <c r="A119" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -16200,13 +16213,13 @@
         <v>82</v>
       </c>
       <c r="K119" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L119" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N119" s="2"/>
       <c r="O119" s="2"/>
@@ -16257,7 +16270,7 @@
         <v>82</v>
       </c>
       <c r="AF119" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG119" t="s" s="2">
         <v>79</v>
@@ -16278,7 +16291,7 @@
         <v>82</v>
       </c>
       <c r="AM119" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN119" t="s" s="2">
         <v>82</v>
@@ -16289,14 +16302,14 @@
     </row>
     <row r="120" hidden="true">
       <c r="A120" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" t="s" s="2">
@@ -16318,13 +16331,13 @@
         <v>136</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O120" s="2"/>
       <c r="P120" t="s" s="2">
@@ -16365,7 +16378,7 @@
         <v>139</v>
       </c>
       <c r="AC120" t="s" s="2">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="AD120" t="s" s="2">
         <v>82</v>
@@ -16374,7 +16387,7 @@
         <v>140</v>
       </c>
       <c r="AF120" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG120" t="s" s="2">
         <v>79</v>
@@ -16395,7 +16408,7 @@
         <v>82</v>
       </c>
       <c r="AM120" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN120" t="s" s="2">
         <v>82</v>
@@ -16406,10 +16419,10 @@
     </row>
     <row r="121" hidden="true">
       <c r="A121" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -16432,16 +16445,16 @@
         <v>81</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="M121" t="s" s="2">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="N121" t="s" s="2">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="O121" s="2"/>
       <c r="P121" t="s" s="2">
@@ -16491,7 +16504,7 @@
         <v>82</v>
       </c>
       <c r="AF121" t="s" s="2">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="AG121" t="s" s="2">
         <v>79</v>
@@ -16500,7 +16513,7 @@
         <v>91</v>
       </c>
       <c r="AI121" t="s" s="2">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="AJ121" t="s" s="2">
         <v>102</v>
@@ -16523,10 +16536,10 @@
     </row>
     <row r="122" hidden="true">
       <c r="A122" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -16552,13 +16565,13 @@
         <v>104</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" t="s" s="2">
@@ -16584,13 +16597,13 @@
         <v>82</v>
       </c>
       <c r="X122" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="Y122" t="s" s="2">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Z122" t="s" s="2">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AA122" t="s" s="2">
         <v>82</v>
@@ -16608,7 +16621,7 @@
         <v>82</v>
       </c>
       <c r="AF122" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AG122" t="s" s="2">
         <v>79</v>
@@ -16640,10 +16653,10 @@
     </row>
     <row r="123" hidden="true">
       <c r="A123" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" t="s" s="2">
@@ -16666,16 +16679,16 @@
         <v>81</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="L123" t="s" s="2">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M123" t="s" s="2">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="N123" t="s" s="2">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="O123" s="2"/>
       <c r="P123" t="s" s="2">
@@ -16725,7 +16738,7 @@
         <v>82</v>
       </c>
       <c r="AF123" t="s" s="2">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AG123" t="s" s="2">
         <v>79</v>
@@ -16746,7 +16759,7 @@
         <v>82</v>
       </c>
       <c r="AM123" t="s" s="2">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AN123" t="s" s="2">
         <v>82</v>
@@ -16757,10 +16770,10 @@
     </row>
     <row r="124" hidden="true">
       <c r="A124" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" t="s" s="2">
@@ -16783,16 +16796,16 @@
         <v>81</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="N124" t="s" s="2">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="O124" s="2"/>
       <c r="P124" t="s" s="2">
@@ -16842,7 +16855,7 @@
         <v>82</v>
       </c>
       <c r="AF124" t="s" s="2">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AG124" t="s" s="2">
         <v>79</v>
@@ -16874,10 +16887,10 @@
     </row>
     <row r="125" hidden="true">
       <c r="A125" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="C125" s="2"/>
       <c r="D125" t="s" s="2">
@@ -16900,13 +16913,13 @@
         <v>81</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" s="2"/>
@@ -16957,7 +16970,7 @@
         <v>82</v>
       </c>
       <c r="AF125" t="s" s="2">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="AG125" t="s" s="2">
         <v>79</v>
@@ -16972,13 +16985,13 @@
         <v>102</v>
       </c>
       <c r="AK125" t="s" s="2">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AL125" t="s" s="2">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AM125" t="s" s="2">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AN125" t="s" s="2">
         <v>82</v>
@@ -16989,10 +17002,10 @@
     </row>
     <row r="126" hidden="true">
       <c r="A126" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="C126" s="2"/>
       <c r="D126" t="s" s="2">
@@ -17015,13 +17028,13 @@
         <v>82</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L126" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="N126" s="2"/>
       <c r="O126" s="2"/>
@@ -17048,31 +17061,31 @@
         <v>82</v>
       </c>
       <c r="X126" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y126" t="s" s="2">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="Z126" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AA126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE126" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF126" t="s" s="2">
         <v>544</v>
-      </c>
-      <c r="AA126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE126" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF126" t="s" s="2">
-        <v>540</v>
       </c>
       <c r="AG126" t="s" s="2">
         <v>79</v>
@@ -17087,13 +17100,13 @@
         <v>102</v>
       </c>
       <c r="AK126" t="s" s="2">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="AL126" t="s" s="2">
         <v>82</v>
       </c>
       <c r="AM126" t="s" s="2">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AN126" t="s" s="2">
         <v>82</v>
@@ -17104,10 +17117,10 @@
     </row>
     <row r="127" hidden="true">
       <c r="A127" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C127" s="2"/>
       <c r="D127" t="s" s="2">
@@ -17130,13 +17143,13 @@
         <v>82</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="N127" s="2"/>
       <c r="O127" s="2"/>
@@ -17187,7 +17200,7 @@
         <v>82</v>
       </c>
       <c r="AF127" t="s" s="2">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="AG127" t="s" s="2">
         <v>79</v>
@@ -17202,7 +17215,7 @@
         <v>102</v>
       </c>
       <c r="AK127" t="s" s="2">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="AL127" t="s" s="2">
         <v>82</v>
@@ -17219,10 +17232,10 @@
     </row>
     <row r="128" hidden="true">
       <c r="A128" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="C128" s="2"/>
       <c r="D128" t="s" s="2">
@@ -17245,68 +17258,68 @@
         <v>81</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" t="s" s="2">
         <v>82</v>
       </c>
       <c r="Q128" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="R128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="S128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="T128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="U128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="V128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="W128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="X128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Y128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="Z128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AA128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE128" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF128" t="s" s="2">
         <v>555</v>
-      </c>
-      <c r="R128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="S128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="T128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="U128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="V128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="W128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="X128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Y128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="Z128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AA128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE128" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF128" t="s" s="2">
-        <v>551</v>
       </c>
       <c r="AG128" t="s" s="2">
         <v>79</v>
@@ -17324,7 +17337,7 @@
         <v>82</v>
       </c>
       <c r="AL128" t="s" s="2">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="AM128" t="s" s="2">
         <v>133</v>
@@ -17338,10 +17351,10 @@
     </row>
     <row r="129" hidden="true">
       <c r="A129" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -17364,13 +17377,13 @@
         <v>82</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L129" t="s" s="2">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="M129" t="s" s="2">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="N129" s="2"/>
       <c r="O129" s="2"/>
@@ -17397,31 +17410,31 @@
         <v>82</v>
       </c>
       <c r="X129" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y129" t="s" s="2">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="Z129" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="AA129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE129" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF129" t="s" s="2">
         <v>561</v>
-      </c>
-      <c r="AA129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE129" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF129" t="s" s="2">
-        <v>557</v>
       </c>
       <c r="AG129" t="s" s="2">
         <v>79</v>
@@ -17453,10 +17466,10 @@
     </row>
     <row r="130" hidden="true">
       <c r="A130" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -17479,13 +17492,13 @@
         <v>82</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L130" t="s" s="2">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="M130" t="s" s="2">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="N130" s="2"/>
       <c r="O130" s="2"/>
@@ -17536,7 +17549,7 @@
         <v>82</v>
       </c>
       <c r="AF130" t="s" s="2">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="AG130" t="s" s="2">
         <v>79</v>
@@ -17548,7 +17561,7 @@
         <v>82</v>
       </c>
       <c r="AJ130" t="s" s="2">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="AK130" t="s" s="2">
         <v>82</v>
@@ -17568,10 +17581,10 @@
     </row>
     <row r="131" hidden="true">
       <c r="A131" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C131" s="2"/>
       <c r="D131" t="s" s="2">
@@ -17594,13 +17607,13 @@
         <v>82</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -17651,7 +17664,7 @@
         <v>82</v>
       </c>
       <c r="AF131" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG131" t="s" s="2">
         <v>79</v>
@@ -17672,7 +17685,7 @@
         <v>82</v>
       </c>
       <c r="AM131" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN131" t="s" s="2">
         <v>82</v>
@@ -17683,14 +17696,14 @@
     </row>
     <row r="132" hidden="true">
       <c r="A132" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E132" s="2"/>
       <c r="F132" t="s" s="2">
@@ -17712,13 +17725,13 @@
         <v>136</v>
       </c>
       <c r="L132" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" t="s" s="2">
@@ -17768,7 +17781,7 @@
         <v>82</v>
       </c>
       <c r="AF132" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG132" t="s" s="2">
         <v>79</v>
@@ -17789,7 +17802,7 @@
         <v>82</v>
       </c>
       <c r="AM132" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN132" t="s" s="2">
         <v>82</v>
@@ -17800,14 +17813,14 @@
     </row>
     <row r="133" hidden="true">
       <c r="A133" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E133" s="2"/>
       <c r="F133" t="s" s="2">
@@ -17829,16 +17842,16 @@
         <v>136</v>
       </c>
       <c r="L133" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P133" t="s" s="2">
         <v>82</v>
@@ -17887,7 +17900,7 @@
         <v>82</v>
       </c>
       <c r="AF133" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AG133" t="s" s="2">
         <v>79</v>
@@ -17919,10 +17932,10 @@
     </row>
     <row r="134" hidden="true">
       <c r="A134" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -17945,13 +17958,13 @@
         <v>82</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L134" t="s" s="2">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="N134" s="2"/>
       <c r="O134" s="2"/>
@@ -18002,7 +18015,7 @@
         <v>82</v>
       </c>
       <c r="AF134" t="s" s="2">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="AG134" t="s" s="2">
         <v>79</v>
@@ -18020,7 +18033,7 @@
         <v>82</v>
       </c>
       <c r="AL134" t="s" s="2">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="AM134" t="s" s="2">
         <v>133</v>
@@ -18034,10 +18047,10 @@
     </row>
     <row r="135" hidden="true">
       <c r="A135" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -18063,10 +18076,10 @@
         <v>104</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="N135" s="2"/>
       <c r="O135" s="2"/>
@@ -18117,7 +18130,7 @@
         <v>82</v>
       </c>
       <c r="AF135" t="s" s="2">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AG135" t="s" s="2">
         <v>79</v>
@@ -18149,10 +18162,10 @@
     </row>
     <row r="136" hidden="true">
       <c r="A136" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C136" s="2"/>
       <c r="D136" t="s" s="2">
@@ -18175,13 +18188,13 @@
         <v>82</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" s="2"/>
@@ -18232,7 +18245,7 @@
         <v>82</v>
       </c>
       <c r="AF136" t="s" s="2">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="AG136" t="s" s="2">
         <v>79</v>
@@ -18250,7 +18263,7 @@
         <v>82</v>
       </c>
       <c r="AL136" t="s" s="2">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="AM136" t="s" s="2">
         <v>133</v>
@@ -18264,10 +18277,10 @@
     </row>
     <row r="137" hidden="true">
       <c r="A137" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -18290,13 +18303,13 @@
         <v>82</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L137" t="s" s="2">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="N137" s="2"/>
       <c r="O137" s="2"/>
@@ -18347,7 +18360,7 @@
         <v>82</v>
       </c>
       <c r="AF137" t="s" s="2">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="AG137" t="s" s="2">
         <v>79</v>
@@ -18365,7 +18378,7 @@
         <v>82</v>
       </c>
       <c r="AL137" t="s" s="2">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="AM137" t="s" s="2">
         <v>133</v>
@@ -18379,10 +18392,10 @@
     </row>
     <row r="138" hidden="true">
       <c r="A138" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -18405,13 +18418,13 @@
         <v>82</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L138" t="s" s="2">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="N138" s="2"/>
       <c r="O138" s="2"/>
@@ -18438,31 +18451,31 @@
         <v>82</v>
       </c>
       <c r="X138" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y138" t="s" s="2">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="Z138" t="s" s="2">
+        <v>592</v>
+      </c>
+      <c r="AA138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE138" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF138" t="s" s="2">
         <v>588</v>
-      </c>
-      <c r="AA138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE138" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF138" t="s" s="2">
-        <v>584</v>
       </c>
       <c r="AG138" t="s" s="2">
         <v>79</v>
@@ -18480,7 +18493,7 @@
         <v>82</v>
       </c>
       <c r="AL138" t="s" s="2">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="AM138" t="s" s="2">
         <v>133</v>
@@ -18494,10 +18507,10 @@
     </row>
     <row r="139" hidden="true">
       <c r="A139" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -18520,13 +18533,13 @@
         <v>82</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L139" t="s" s="2">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="M139" t="s" s="2">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="N139" s="2"/>
       <c r="O139" s="2"/>
@@ -18553,31 +18566,31 @@
         <v>82</v>
       </c>
       <c r="X139" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y139" t="s" s="2">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="Z139" t="s" s="2">
+        <v>598</v>
+      </c>
+      <c r="AA139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE139" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF139" t="s" s="2">
         <v>594</v>
-      </c>
-      <c r="AA139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE139" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF139" t="s" s="2">
-        <v>590</v>
       </c>
       <c r="AG139" t="s" s="2">
         <v>79</v>
@@ -18609,10 +18622,10 @@
     </row>
     <row r="140" hidden="true">
       <c r="A140" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -18635,16 +18648,16 @@
         <v>82</v>
       </c>
       <c r="K140" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="N140" t="s" s="2">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="O140" s="2"/>
       <c r="P140" t="s" s="2">
@@ -18694,7 +18707,7 @@
         <v>82</v>
       </c>
       <c r="AF140" t="s" s="2">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="AG140" t="s" s="2">
         <v>79</v>
@@ -18712,10 +18725,10 @@
         <v>82</v>
       </c>
       <c r="AL140" t="s" s="2">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AM140" t="s" s="2">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="AN140" t="s" s="2">
         <v>82</v>
@@ -18726,10 +18739,10 @@
     </row>
     <row r="141" hidden="true">
       <c r="A141" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="C141" s="2"/>
       <c r="D141" t="s" s="2">
@@ -18752,13 +18765,13 @@
         <v>82</v>
       </c>
       <c r="K141" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" s="2"/>
@@ -18809,7 +18822,7 @@
         <v>82</v>
       </c>
       <c r="AF141" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG141" t="s" s="2">
         <v>79</v>
@@ -18830,7 +18843,7 @@
         <v>82</v>
       </c>
       <c r="AM141" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN141" t="s" s="2">
         <v>82</v>
@@ -18841,14 +18854,14 @@
     </row>
     <row r="142" hidden="true">
       <c r="A142" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E142" s="2"/>
       <c r="F142" t="s" s="2">
@@ -18870,13 +18883,13 @@
         <v>136</v>
       </c>
       <c r="L142" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" t="s" s="2">
@@ -18926,7 +18939,7 @@
         <v>82</v>
       </c>
       <c r="AF142" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG142" t="s" s="2">
         <v>79</v>
@@ -18947,7 +18960,7 @@
         <v>82</v>
       </c>
       <c r="AM142" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN142" t="s" s="2">
         <v>82</v>
@@ -18958,14 +18971,14 @@
     </row>
     <row r="143" hidden="true">
       <c r="A143" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E143" s="2"/>
       <c r="F143" t="s" s="2">
@@ -18987,16 +19000,16 @@
         <v>136</v>
       </c>
       <c r="L143" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O143" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P143" t="s" s="2">
         <v>82</v>
@@ -19045,7 +19058,7 @@
         <v>82</v>
       </c>
       <c r="AF143" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AG143" t="s" s="2">
         <v>79</v>
@@ -19077,10 +19090,10 @@
     </row>
     <row r="144" hidden="true">
       <c r="A144" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -19103,13 +19116,13 @@
         <v>82</v>
       </c>
       <c r="K144" t="s" s="2">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="L144" t="s" s="2">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="N144" s="2"/>
       <c r="O144" s="2"/>
@@ -19160,7 +19173,7 @@
         <v>82</v>
       </c>
       <c r="AF144" t="s" s="2">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="AG144" t="s" s="2">
         <v>79</v>
@@ -19178,10 +19191,10 @@
         <v>82</v>
       </c>
       <c r="AL144" t="s" s="2">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="AM144" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="AN144" t="s" s="2">
         <v>82</v>
@@ -19192,10 +19205,10 @@
     </row>
     <row r="145" hidden="true">
       <c r="A145" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -19218,13 +19231,13 @@
         <v>82</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -19275,7 +19288,7 @@
         <v>82</v>
       </c>
       <c r="AF145" t="s" s="2">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="AG145" t="s" s="2">
         <v>79</v>
@@ -19293,10 +19306,10 @@
         <v>82</v>
       </c>
       <c r="AL145" t="s" s="2">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AM145" t="s" s="2">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AN145" t="s" s="2">
         <v>82</v>
@@ -19307,10 +19320,10 @@
     </row>
     <row r="146" hidden="true">
       <c r="A146" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -19333,13 +19346,13 @@
         <v>82</v>
       </c>
       <c r="K146" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L146" t="s" s="2">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="N146" s="2"/>
       <c r="O146" s="2"/>
@@ -19390,7 +19403,7 @@
         <v>82</v>
       </c>
       <c r="AF146" t="s" s="2">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="AG146" t="s" s="2">
         <v>79</v>
@@ -19408,10 +19421,10 @@
         <v>82</v>
       </c>
       <c r="AL146" t="s" s="2">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="AM146" t="s" s="2">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="AN146" t="s" s="2">
         <v>82</v>
@@ -19422,10 +19435,10 @@
     </row>
     <row r="147" hidden="true">
       <c r="A147" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -19448,13 +19461,13 @@
         <v>82</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -19505,7 +19518,7 @@
         <v>82</v>
       </c>
       <c r="AF147" t="s" s="2">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="AG147" t="s" s="2">
         <v>79</v>
@@ -19537,10 +19550,10 @@
     </row>
     <row r="148" hidden="true">
       <c r="A148" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="C148" s="2"/>
       <c r="D148" t="s" s="2">
@@ -19563,13 +19576,13 @@
         <v>82</v>
       </c>
       <c r="K148" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" s="2"/>
@@ -19620,7 +19633,7 @@
         <v>82</v>
       </c>
       <c r="AF148" t="s" s="2">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG148" t="s" s="2">
         <v>79</v>
@@ -19641,7 +19654,7 @@
         <v>82</v>
       </c>
       <c r="AM148" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN148" t="s" s="2">
         <v>82</v>
@@ -19652,14 +19665,14 @@
     </row>
     <row r="149" hidden="true">
       <c r="A149" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E149" s="2"/>
       <c r="F149" t="s" s="2">
@@ -19681,13 +19694,13 @@
         <v>136</v>
       </c>
       <c r="L149" t="s" s="2">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="M149" t="s" s="2">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="N149" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O149" s="2"/>
       <c r="P149" t="s" s="2">
@@ -19737,7 +19750,7 @@
         <v>82</v>
       </c>
       <c r="AF149" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>79</v>
@@ -19758,7 +19771,7 @@
         <v>82</v>
       </c>
       <c r="AM149" t="s" s="2">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="AN149" t="s" s="2">
         <v>82</v>
@@ -19769,14 +19782,14 @@
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="E150" s="2"/>
       <c r="F150" t="s" s="2">
@@ -19798,16 +19811,16 @@
         <v>136</v>
       </c>
       <c r="L150" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="M150" t="s" s="2">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="N150" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="O150" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>82</v>
@@ -19856,7 +19869,7 @@
         <v>82</v>
       </c>
       <c r="AF150" t="s" s="2">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>79</v>
@@ -19888,10 +19901,10 @@
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -19914,13 +19927,13 @@
         <v>82</v>
       </c>
       <c r="K151" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -19971,7 +19984,7 @@
         <v>82</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>79</v>
@@ -20003,10 +20016,10 @@
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -20029,13 +20042,13 @@
         <v>82</v>
       </c>
       <c r="K152" t="s" s="2">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="L152" t="s" s="2">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="M152" t="s" s="2">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="N152" s="2"/>
       <c r="O152" s="2"/>
@@ -20086,7 +20099,7 @@
         <v>82</v>
       </c>
       <c r="AF152" t="s" s="2">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="AG152" t="s" s="2">
         <v>79</v>
@@ -20118,10 +20131,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>631</v>
+        <v>635</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -20144,13 +20157,13 @@
         <v>82</v>
       </c>
       <c r="K153" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="L153" t="s" s="2">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="M153" t="s" s="2">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="N153" s="2"/>
       <c r="O153" s="2"/>
@@ -20177,31 +20190,31 @@
         <v>82</v>
       </c>
       <c r="X153" t="s" s="2">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Y153" t="s" s="2">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="Z153" t="s" s="2">
+        <v>639</v>
+      </c>
+      <c r="AA153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE153" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF153" t="s" s="2">
         <v>635</v>
-      </c>
-      <c r="AA153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE153" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF153" t="s" s="2">
-        <v>631</v>
       </c>
       <c r="AG153" t="s" s="2">
         <v>79</v>
@@ -20233,10 +20246,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -20259,16 +20272,16 @@
         <v>82</v>
       </c>
       <c r="K154" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="N154" t="s" s="2">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="O154" s="2"/>
       <c r="P154" t="s" s="2">
@@ -20294,31 +20307,31 @@
         <v>82</v>
       </c>
       <c r="X154" t="s" s="2">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Y154" t="s" s="2">
+        <v>644</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>645</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AF154" t="s" s="2">
         <v>640</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>641</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>636</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>91</v>
@@ -20350,10 +20363,10 @@
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -20376,16 +20389,16 @@
         <v>82</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>647</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>648</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>649</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>643</v>
-      </c>
-      <c r="L155" t="s" s="2">
-        <v>644</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>645</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>639</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -20435,7 +20448,7 @@
         <v>82</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>79</v>

--- a/docs/StructureDefinition-BRImunobiologicoAdministradoCampanha-2.0.xlsx
+++ b/docs/StructureDefinition-BRImunobiologicoAdministradoCampanha-2.0.xlsx
@@ -564,7 +564,7 @@
     <t>Estado do evento</t>
   </si>
   <si>
-    <t>http://www.saude.gov.br/fhir/r4/ValueSet/BREstadoEvento-1.0</t>
+    <t>http://hl7.org/fhir/ValueSet/immunization-status</t>
   </si>
   <si>
     <t>Event.status</t>

--- a/docs/StructureDefinition-BRImunobiologicoAdministradoCampanha-2.0.xlsx
+++ b/docs/StructureDefinition-BRImunobiologicoAdministradoCampanha-2.0.xlsx
@@ -2343,17 +2343,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="55.8203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="55.8203125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="17.46484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="37.5859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.9296875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.47265625" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.87890625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.2734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.7265625" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="53.23046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="53.23046875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.65625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="35.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.65234375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65234375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.1796875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="75.78515625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="72.26953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2362,27 +2362,27 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="36.22265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.4609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.86328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="91.51171875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="65.625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.52734375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="38.34375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="15.06640625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="41.2421875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.28515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.6875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.54296875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.7421875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.12890625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.40625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="15.85546875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="87.265625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="62.578125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.2734375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.1171875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.56640625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.3671875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.84375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.328125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.85546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.23828125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.359375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="136.8359375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="217.61328125" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="32.4453125" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="150.49609375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.13671875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="130.484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="207.515625" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="30.9375" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="143.515625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
